--- a/Auto_TC.xlsx
+++ b/Auto_TC.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="REGISTER" sheetId="2" r:id="rId2"/>
     <sheet name="FORGOT_PASSWORD" sheetId="3" r:id="rId3"/>
-    <sheet name="COLLECTION" sheetId="4" r:id="rId4"/>
+    <sheet name="PUBLISHER" sheetId="4" r:id="rId4"/>
     <sheet name="ACCOUNT" sheetId="5" r:id="rId5"/>
     <sheet name="Overview" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="243">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -595,346 +595,6 @@
   <si>
     <t>7. Hiển thị icon cảnh báo, với tiêu đề thông báo "cảnh báo", nội dung: "Chưa có tài khoản đăng kí trong hệ thống"
 8. Tắt thông báo</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_02</t>
-  </si>
-  <si>
-    <t>Thêm thông tin bộ truyện với tên bộ truyện có 1 kí tự và có chọn tác giả, nhà xuất bản, ngày phát hành, tình trạng</t>
-  </si>
-  <si>
-    <t>Đã đăng nhập thành công và đã lưu trữ ít nhất hai thông tin về tác giả và nhà xuất bản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút "+" để mở giao diện thông tin bộ truyện
-B3: Chọn trường tên bộ truyện và nhập: 's'
-B4: Chọn dropdown tác giả và chọn vị trí thứ 2
-B5:  Chọn dropdown nhà xuất bản và chọn vị trí thứ 2
-B6:  Chọn dropdown tình trạng và chọn vị trí thứ 2
-B7:   Chọn ngày phát hành và chọn ngày trước ngày hiện tại
-B8: Chọn nút "+" để thêm thông tin
-B9: Chọn nút "Ok" trên thông báo
-</t>
-  </si>
-  <si>
-    <t>2. Hiển thị giao diện thông tin bộ truyện với mã bộ truyện đã được tạo sẵn
-8. Hiển thị với icon thành công, tiêu đề: "Thông báo" và nội dung: "Thêm thông tin bộ truyện thành công" 
-9. Tắt thông báo và làm mới các trường nhập đồng thời tạo mới mã bộ truyện</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_03</t>
-  </si>
-  <si>
-    <t>Thêm thông tin bộ truyện với tên bộ truyện có 2 kí tự và có chọn tác giả, nhà xuất bản, ngày phát hành, tình trạng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút "+" để mở giao diện thông tin bộ truyện
-B3: Chọn trường tên bộ truyện và nhập: 'sp'
-B4: Chọn dropdown tác giả và chọn vị trí thứ 2
-B5:  Chọn dropdown nhà xuất bản và chọn vị trí thứ 2
-B6:  Chọn dropdown tình trạng và chọn vị trí thứ 2
-B7:   Chọn ngày phát hành và chọn ngày trước ngày hiện tại
-B8: Chọn nút "+" để thêm thông tin
-B9: Chọn nút "Ok" trên thông báo
-</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_04</t>
-  </si>
-  <si>
-    <t>Thêm thông tin bộ truyện với tên bộ truyện có 2 kí tự và có chọn tác giả, nhà xuất bản, ngày phát hành, tình trạng và ghi chú có 1 kí tự</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút "+" để mở giao diện thông tin bộ truyện
-B3: Chọn trường tên bộ truyện và nhập: 'sp'
-B4: Chọn dropdown tác giả và chọn vị trí thứ 2
-B5:  Chọn dropdown nhà xuất bản và chọn vị trí thứ 2
-B6:  Chọn dropdown tình trạng và chọn vị trí thứ 2
-B7:   Chọn ngày phát hành và chọn ngày trước ngày hiện tại
-B8:  Chọn trường ghi chú và nhập: 'g'
-B9: Chọn nút "+" để thêm thông tin
-B10: Chọn nút "Ok" trên thông báo
-</t>
-  </si>
-  <si>
-    <t>2. Hiển thị giao diện thông tin bộ truyện với mã bộ truyện đã được tạo sẵn
-5. Hiển thị với icon thành công, tiêu đề: "Thông báo" và nội dung: "Thêm thông tin bộ truyện thành công" 
-6. Tắt thông báo và làm mới các trường nhập đồng thời tạo mới mã bộ truyện</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_05</t>
-  </si>
-  <si>
-    <t>Thêm thông tin bộ truyện với tên bộ truyện có 2 kí tự và không chọn tác giả, nhà xuất bản, ngày phát hành, tình trạng và ghi chú có 1 kí tự</t>
-  </si>
-  <si>
-    <t>Đã đăng nhập thành công và đã lưu trữ ít nhất một thông tin về tác giả và nhà xuất bản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút "+" để mở giao diện thông tin bộ truyện
-B3: Chọn trường tên bộ truyện và nhập: 'sp'
-B4:  Chọn trường ghi chú và nhập: 'g'
-B5: Chọn nút "+" để thêm thông tin
-B6: Chọn nút "Ok" trên thông báo
-</t>
-  </si>
-  <si>
-    <t>2. Hiển thị giao diện thông tin bộ truyện với mã bộ truyện đã được tạo sẵn
-9. Hiển thị với icon thành công, tiêu đề: "Thông báo" và nội dung: "Thêm thông tin bộ truyện thành công" 
-10. Tắt thông báo và làm mới các trường nhập đồng thời tạo mới mã bộ truyện</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_06</t>
-  </si>
-  <si>
-    <t>Thêm thông tin bộ truyện với trường tên bộ truyện bị bỏ trống</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút "+" để mở giao diện thông tin bộ truyện
-B3:  Chọn trường ghi chú và nhập: 'g'
-B4: Chọn nút "+" để thêm thông tin
-B5: Chọn nút "Ok" trên thông báo
-</t>
-  </si>
-  <si>
-    <t>2. Hiển thị giao diện thông tin bộ truyện với mã bộ truyện đã được tạo sẵn
-4. Hiển thị icon cảnh báo, với tiêu đề thông báo "Cảnh báo", nội dung: "Không được bỏ trống tên bộ truyện"
-5. Tắt thông báo</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_07</t>
-  </si>
-  <si>
-    <t>Thêm thông tin bộ truyện với chưa có thông tin tác giả và nhà xuất bản được lưu</t>
-  </si>
-  <si>
-    <t>Đã đăng nhập thành công và chưa lưu thông tin tác giả và nhà xuất bản nào</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút "+" để mở giao diện thông tin bộ truyện
-B3:  Chọn tên bộ truyện và nhập: 'spyxfamily'
-B4: Chọn nút "+" để thêm thông tin
-B5: Chọn nút "Ok" trên thông báo
-</t>
-  </si>
-  <si>
-    <t>2. Hiển thị giao diện thông tin bộ truyện với mã bộ truyện đã được tạo sẵn
-4. Hiển thị icon thất bại, với tiêu đề thông báo "Thông báo", nội dung: "Thêm bộ truyện không thành công"
-5. Tắt thông báo</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_08</t>
-  </si>
-  <si>
-    <t>Thêm thông tin bộ truyện đã tồn tại</t>
-  </si>
-  <si>
-    <t>Đã đăng nhập thành công
-Có ít nhất một thông tin bộ truyện đã được lưu trong danh sách</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Trong danh sách thông tin bộ truyện, chọn vào thông tin đầu tiền
-B3: Chọn "+" để thêm thông tin bộ truyện
-B4: Chọn nút "OK" trong thông báo</t>
-  </si>
-  <si>
-    <t>2. Hiển thị thông tin bộ truyện được chọn trên các trường tương ứng
-3. Hiển thị icon thất bại, tiêu đề: "Thông báo" và nội dung: "Thêm thông tin bộ truyện không thành công"
-4. Tắt thông báo</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_09</t>
-  </si>
-  <si>
-    <t>Sửa thông tin bộ truyện với tên bộ truyện có 2 kí tự, thay đổi tác giả, nhà xuất bản, tình trạng và ngày phát hành</t>
-  </si>
-  <si>
-    <t>Đã đăng nhập thành công
-Có ít nhất một thông tin bộ truyện đã được lưu trong danh sách
-Có ít nhất 2 thông tin trong tác giả và nhà xuất bản được lưu trong hệ thống</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Trong danh sách thông tin bộ truyện, chọn vào thông tin đầu tiên
-B3: Chọn trường tên bộ truyện, xóa thông tin cũ và nhập: 'hi'
-B4: Chọn dropdown tác giả và chọn vị trí thứ 2
-B5:  Chọn dropdown nhà xuất bản và chọn vị trí thứ 2
-B6:  Chọn dropdown tình trạng và chọn vị trí thứ 2
-B7:   Chọn ngày phát hành và chọn ngày trước ngày hiện tại
-B8: Chọn sửa để sửa thông tin bộ truyện
-B9: Chọn nút "OK" trong thông báo</t>
-  </si>
-  <si>
-    <t>2. Hiển thị thông tin bộ truyện được chọn trên các trường tương ứng
-8. Hiển thị icon thành công, với tiêu đề thông báo "Thông báo", nội dung: "Sửa thông tin bộ truyện thành công"
-9. Tắt thông báo và trở về danh sách thông tin bộ truyện</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_10</t>
-  </si>
-  <si>
-    <t>Sửa thông tin bộ truyện với tên bộ truyện có 1 kí tự và ghi chú có 1 kí tự</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã đăng nhập thành công
-Có ít nhất một thông tin bộ truyện đã được lưu trong danh sách
-</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Trong danh sách thông tin bộ truyện, chọn vào thông tin đầu tiên
-B3: Chọn trường tên bộ truyện, xóa thông tin cũ và nhập: 'h'
-B4: Chọn trường ghi chú và nhập: 'g'
-B5: Chọn sửa để sửa thông tin bộ truyện
-B6: Chọn nút "OK" trong thông báo</t>
-  </si>
-  <si>
-    <t>2. Hiển thị thông tin bộ truyện được chọn trên các trường tương ứng
-5. Hiển thị icon thành công, với tiêu đề thông báo "Thông báo", nội dung: "Sửa thông tin bộ truyện thành công"
-6. Tắt thông báo và trở về danh sách thông tin bộ truyện</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_11</t>
-  </si>
-  <si>
-    <t>Sửa thông tin bộ truyện với tên bộ truyện bị bỏ trống</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Trong danh sách thông tin bộ truyện, chọn vào thông tin đầu tiên
-B3: Chọn trường tên bộ truyện, xóa thông tin cũ 
-B4: Chọn sửa để sửa thông tin bộ truyện
-B5: Chọn nút "OK" trong thông báo</t>
-  </si>
-  <si>
-    <t>2. Hiển thị thông tin bộ truyện được chọn trên các trường tương ứng
-4. Hiển thị icon cảnh báo, với tiêu đề thông báo "Cảnh báo", nội dung: "Không được bỏ trống tên bộ truyện"
-5. Tắt thông báo</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_12</t>
-  </si>
-  <si>
-    <t>Sửa thông tin bộ truyện không tồn tại</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút "+" để mở giao diện thông tin bộ truyện
-B3: Chọn sửa thông tin bộ truyện
-B4: Nhấn "OK" trên thông báo</t>
-  </si>
-  <si>
-    <t>2. Hiển thị giao diện thông tin bộ truyện với mã bộ truyện đã được tạo sẵn
-3. Hiển thị icon thất bại, với tiêu đề thông báo "Thông báo", nội dung: "Sửa thông tin bộ truyện không thành công"
-4. Tắt thông báo</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_13</t>
-  </si>
-  <si>
-    <t>Xóa thông tin bộ truyện thành công</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Trong danh sách thông tin bộ truyện, chọn vào thông tin đầu tiên
-B3: Chọn nút xóa
-B4: Chọn nút "OK" trong thông báo</t>
-  </si>
-  <si>
-    <t>2. Hiển thị thông tin bộ truyện được chọn trên các trường tương ứng
-3. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Bạn có chắc chắn muốn xóa thông tin này không"
-4. Tắt thông báo và trở lại danh sách thông tin bộ truyện</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_14</t>
-  </si>
-  <si>
-    <t>Không xóa thông tin bộ truyện</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Trong danh sách thông tin bộ truyện, chọn vào thông tin đầu tiên
-B3: Chọn nút xóa
-B4: Chọn nút "CANCEL" trong thông báo</t>
-  </si>
-  <si>
-    <t>2. Hiển thị thông tin bộ truyện được chọn trên các trường tương ứng
-3. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Bạn có chắc chắn muốn xóa thông tin này không"
-4. Tắt thông báo</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_15</t>
-  </si>
-  <si>
-    <t>Xóa thông tin bộ truyện không tồn tại</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút "+" để mở giao diện thông tin bộ truyện
-B3: Chọn nút xóa
-B4: Chọn nút "OK" trong thông báo
-B5: Chọn nút "OK" trong thông báo</t>
-  </si>
-  <si>
-    <t>2. Hiển thị thông tin bộ truyện được chọn trên các trường tương ứng
-3. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Bạn có chắc chắn muốn xóa thông tin này không"
-4. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Xóa thông tin bộ truyện không thành công"</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_16</t>
-  </si>
-  <si>
-    <t>Tìm kiếm thông tin bộ truyện với tên bộ truyện tồn tại</t>
-  </si>
-  <si>
-    <t>Đã đăng nhập thành công
-Có ít nhất một thông tin bộ truyện đã được lưu trong danh sách với tên 'spyxfamily'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút tìm kiếm
-B3: Chọn ô tìm kiếm và nhập: 'spyxfamily'
-</t>
-  </si>
-  <si>
-    <t>3. Hiển thị thông tin các bộ truyện có tên 'spyxfamily'</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_17</t>
-  </si>
-  <si>
-    <t>Tìm kiếm thông tin bộ truyện với tên bộ truyện bị bỏ trống</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút bộ truyện hoặc chọn mục bộ truyện trong menu
-B2: Chọn nút tìm kiếm
-B3: Chọn ô tìm kiếm và nhập: 'spyxfamily'
-B4: Xóa thông tin trong ô tìm kiếm
-</t>
-  </si>
-  <si>
-    <t>3. Hiển thị thông tin các bộ truyện có tên 'spyxfamily'
-4. Hiển thị toàn bộ thông tin các bộ truyện đã được lưu trữ</t>
-  </si>
-  <si>
-    <t>COLLECTION_F_18</t>
-  </si>
-  <si>
-    <t>Tìm kiếm thông tin bộ truyện với tên bộ truyện không tồn tại</t>
-  </si>
-  <si>
-    <t>Đã đăng nhập thành công
-Có ít nhất một thông tin bộ truyện đã được lưu trong danh sách và không có bộ truyện nào có tên "spyxfamily"</t>
-  </si>
-  <si>
-    <t>3. Không hiển thị thông tin bộ truyện nào trong danh sách</t>
   </si>
   <si>
     <t>SETUP_ACCOUNT_F_00</t>
@@ -1120,9 +780,6 @@
     <t>Quên mật khẩu</t>
   </si>
   <si>
-    <t>Quản lý thông tin bộ truyện</t>
-  </si>
-  <si>
     <t>Thiết lập tài khoản</t>
   </si>
   <si>
@@ -1133,6 +790,334 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_02</t>
+  </si>
+  <si>
+    <t>Thêm thông tin nhà xuất bản với tên nhà xuất bản có 1 kí tự và số điện thoại hợp lệ</t>
+  </si>
+  <si>
+    <t>Đã đăng nhập thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút "+" để mở giao diện thông tin nhà xuất bản
+B3: Chọn trường tên nhà xuất bản và nhập: 'h'
+B4: Chọn trường số điện thoại và nhập: '0123456789'
+B5: Chọn nút "+" để thêm thông tin
+B6: Chọn nút "Ok" trên thông báo
+</t>
+  </si>
+  <si>
+    <t>2. Hiển thị giao diện thông tin nhà xuất bản với mã nhà xuất bản đã được tạo sẵn
+5. Hiển thị với icon thành công, tiêu đề: "Thông báo" và nội dung: "Thêm thông tin nhà xuất bản thành công" 
+6. Tắt thông báo và làm mới các trường nhập đồng thời tạo mới mã nhà xuất bản</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_03</t>
+  </si>
+  <si>
+    <t>Thêm thông tin nhà xuất bản với tên nhà xuất bản có 2 kí tự và số điện thoại hợp lệ, chọn tình trạng "Tạm dừng"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút "+" để mở giao diện thông tin nhà xuất bản
+B3: Chọn trường tên nhà xuất bản và nhập: 'hi'
+B4: Nhấn vào dropbox và chọn "Tạm dừng"
+B5: Chọn trường số điện thoại và nhập: '0123456789'
+B6: Chọn nút "+" để thêm thông tin
+B7: Chọn nút "Ok" trên thông báo
+</t>
+  </si>
+  <si>
+    <t>2. Hiển thị giao diện thông tin nhà xuất bản với mã nhà xuất bản đã được tạo sẵn
+6. Hiển thị với icon thành công, tiêu đề: "Thông báo" và nội dung: "Thêm thông tin nhà xuất bản thành công" 
+7. Tắt thông báo và làm mới các trường nhập đồng thời tạo mới mã nhà xuất bản</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_04</t>
+  </si>
+  <si>
+    <t>Thêm thông tin nhà xuất bản với tên nhà xuất bản có 2 kí tự, địa chỉ và ghi chú có 1 kí tự và số điện thoại hợp lệ, chọn tình trạng "Không họat động"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút "+" để mở giao diện thông tin nhà xuất bản
+B3: Chọn trường tên nhà xuất bản và nhập: 'hi'
+B4: Nhấn vào dropbox và chọn "Không hoạt động"
+B5: Chọn trường số điện thoại và nhập: '0123456789'
+B6: Chọn trường địa chỉ và nhập: 'h'
+B7: Chọn trường ghi chú và nhập: 'h'
+B8: Chọn nút "+" để thêm thông tin
+B9: Chọn nút "Ok" trên thông báo
+</t>
+  </si>
+  <si>
+    <t>2. Hiển thị giao diện thông tin nhà xuất bản với mã nhà xuất bản đã được tạo sẵn
+8. Hiển thị với icon thành công, tiêu đề: "Thông báo" và nội dung: "Thêm thông tin nhà xuất bản thành công" 
+9. Tắt thông báo và làm mới các trường nhập đồng thời tạo mới mã nhà xuất bản</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_05</t>
+  </si>
+  <si>
+    <t>Thêm thông tin nhà xuất bản với trường tên nhà xuất bản bị bỏ trống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút "+" để mở giao diện thông tin nhà xuất bản
+B3: Chọn trường số điện thoại và nhập: '0123456789'
+B4: Chọn nút "+" để thêm thông tin
+B5: Chọn nút "Ok" trên thông báo
+</t>
+  </si>
+  <si>
+    <t>2. Hiển thị giao diện thông tin nhà xuất bản với mã nhà xuất bản đã được tạo sẵn
+4. Hiển thị icon cảnh báo, với tiêu đề thông báo "Cảnh báo", nội dung: "Không được bỏ trống tên nhà xuất bản"
+5. Tắt thông báo</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_06</t>
+  </si>
+  <si>
+    <t>Thêm thông tin nhà xuất bản với số điện thoại không hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút "+" để mở giao diện thông tin nhà xuất bản
+B3: Chọn trường số điện thoại và nhập: '^^&amp;&amp;**789'
+B4: Chọn nút "+" để thêm thông tin
+B5: Chọn nút "Ok" trên thông báo
+</t>
+  </si>
+  <si>
+    <t>2. Hiển thị giao diện thông tin nhà xuất bản với mã nhà xuất bản đã được tạo sẵn
+4. Hiển thị icon cảnh báo, với tiêu đề thông báo "Cảnh báo", nội dung: "Số điện thoại không hợp lệ"
+5. Tắt thông báo</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_07</t>
+  </si>
+  <si>
+    <t>Thêm thông tin nhà xuất bản đã tồn tại</t>
+  </si>
+  <si>
+    <t>Đã đăng nhập thành công
+Có ít nhất một thông tin nhà xuất bản đã được lưu trong danh sách</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiền
+B3: Chọn "+" để thêm thông tin nhà xuất bản
+B4: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+3. Hiển thị icon thất bại, tiêu đề: "Thông báo" và nội dung: "Thêm thông tin nhà xuất bản không thành công"
+4. Tắt thông báo</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_08</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhà xuất bản với tên nhà xuất bản có 2 kí tự, đổi tình trạng và số điện thoại hợp lệ</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
+B3: Chọn trường tên nhà xuất bản, xóa thông tin cũ và nhập: 'hi'
+B4: Chọn dropbox và chọn "Tạm dừng"
+B5: Chọn trường số điện thoại, xóa thông tin cũ và nhập: '0123456789'
+B6: Chọn sửa để sửa thông tin nhà xuất bản
+B7: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+6. Hiển thị icon thành công, với tiêu đề thông báo "Thông báo", nội dung: "Sửa thông tin nhà xuất bản thành công"
+7. Tắt thông báo và trở về danh sách thông tin nhà xuất bản</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_09</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhà xuất bản với tên nhà xuất bản có 1 kí tự, đổi tình trạng và số điện thoại hợp lệ, ghi chú có 1 kí tự</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
+B3: Chọn trường tên nhà xuất bản, xóa thông tin cũ và nhập: 'h'
+B4: Chọn dropbox và chọn "Tạm dừng"
+B5: Chọn trường số điện thoại, xóa thông tin cũ và nhập: '0123456789'
+B6: Chọn trường ghi chú, xóa thông tin cũ và nhập: "h"
+B7: Chọn sửa để sửa thông tin nhà xuất bản
+B8: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+7. Hiển thị icon thành công, với tiêu đề thông báo "Thông báo", nội dung: "Sửa thông tin nhà xuất bản thành công"
+8. Tắt thông báo và trở về danh sách thông tin nhà xuất bản</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_10</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhà xuất bản với tên nhà xuất bản bị bỏ trống</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
+B3: Chọn trường tên nhà xuất bản, xóa thông tin cũ
+B4: Chọn dropbox và chọn "Tạm dừng"
+B5: Chọn trường số điện thoại, xóa thông tin cũ và nhập: '0123456789'
+B6: Chọn sửa để sửa thông tin nhà xuất bản
+B7: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+6. Hiển thị icon cảnh báo, với tiêu đề thông báo "Cảnh báo", nội dung: "Không thể bỏ trống tên nhà xuất bản"
+7. Tắt thông báo</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_11</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhà xuất bản với số điện thoại không hợp lệ</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
+B3: Chọn trường tên nhà xuất bản, xóa thông tin cũ và nhập: 'hi'
+B4: Chọn dropbox và chọn "Tạm dừng"
+B5: Chọn trường số điện thoại, xóa thông tin cũ và nhập: '0^&amp;*  123456789'
+B6: Chọn sửa để sửa thông tin nhà xuất bản
+B7: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+6. Hiển thị icon cảnh báo, với tiêu đề thông báo "Cảnh báo", nội dung: "Số điện thoại không hợp lệ"
+7. Tắt thông báo</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_12</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhà xuất bản không tồn tại</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút "+" để mở giao diện thông tin nhà xuất bản
+B3: Chọn sửa thông tin nhà xuất bản
+B4: Nhấn "OK" trên thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị giao diện thông tin nhà xuất bản với mã nhà xuất bản đã được tạo sẵn
+3. Hiển thị icon thất bại, với tiêu đề thông báo "Thông báo", nội dung: "Sửa thông tin nhà xuất bản không thành công"
+4. Tắt thông báo</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_13</t>
+  </si>
+  <si>
+    <t>Xóa thông tin nhà xuất bản thành công</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
+B3: Chọn nút xóa
+B4: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+3. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Bạn có chắc chắn muốn xóa thông tin này không"
+4. Tắt thông báo và trở lại danh sách thông tin nhà xuất bản</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_14</t>
+  </si>
+  <si>
+    <t>Không xóa thông tin nhà xuất bản</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
+B3: Chọn nút xóa
+B4: Chọn nút "CANCEL" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+3. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Bạn có chắc chắn muốn xóa thông tin này không"
+4. Tắt thông báo</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_15</t>
+  </si>
+  <si>
+    <t>Xóa thông tin nhà xuất bản không tồn tại</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút "+" để mở giao diện thông tin nhà xuất bản
+B3: Chọn nút xóa
+B4: Chọn nút "OK" trong thông báo
+B5: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+3. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Bạn có chắc chắn muốn xóa thông tin này không"
+4. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Xóa thông tin nhà xuất bản không thành công"</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_16</t>
+  </si>
+  <si>
+    <t>Tìm kiếm thông tin nhà xuất bản với tên nhà xuất bản tồn tại</t>
+  </si>
+  <si>
+    <t>Đã đăng nhập thành công
+Có ít nhất một thông tin nhà xuất bản đã được lưu trong danh sách với tên 'kd'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút tìm kiếm
+B3: Chọn ô tìm kiếm và nhập: 'kd'
+</t>
+  </si>
+  <si>
+    <t>3. Hiển thị thông tin các nhà xuất bản có tên 'kd'</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_17</t>
+  </si>
+  <si>
+    <t>Tìm kiếm thông tin nhà xuất bản với tên nhà xuất bản bị bỏ trống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút tìm kiếm
+B3: Chọn ô tìm kiếm và nhập: 'kd'
+B4: Xóa thông tin trong ô tìm kiếm
+</t>
+  </si>
+  <si>
+    <t>3. Hiển thị thông tin các nhà xuất bản có tên 'kd'
+4. Hiển thị toàn bộ thông tin các nhà xuất bản đã được lưu trữ</t>
+  </si>
+  <si>
+    <t>PUBLISHER_F_18</t>
+  </si>
+  <si>
+    <t>Tìm kiếm thông tin nhà xuất bản với tên nhà xuất bản không tồn tại</t>
+  </si>
+  <si>
+    <t>Đã đăng nhập thành công
+Có ít nhất một thông tin nhà xuất bản đã được lưu trong danh sách và không có nhà xuất bản nào có tên "kd"</t>
+  </si>
+  <si>
+    <t>3. Không hiển thị thông tin nhà xuất bản nào trong danh sách</t>
+  </si>
+  <si>
+    <t>Quản lý thông tin nhà xuất bản</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1343,47 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1578,206 +1603,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1856,14 +1681,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="C3:H11" totalsRowShown="0">
   <autoFilter ref="C3:H11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Chức năng" dataDxfId="25"/>
-    <tableColumn id="2" name="Tổng số testcase" dataDxfId="24">
+    <tableColumn id="1" name="Chức năng" dataDxfId="29"/>
+    <tableColumn id="2" name="Tổng số testcase" dataDxfId="28">
       <calculatedColumnFormula>SUM(COUNTA('[1]Đăng nhập'!C12:C24), COUNTA('[1]Đăng kí'!C12:C26),COUNTA('[1]Khôi phục mật khẩu'!C12:C29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Passed" dataDxfId="23"/>
-    <tableColumn id="4" name="Failed" dataDxfId="22"/>
-    <tableColumn id="5" name="N/A" dataDxfId="21"/>
-    <tableColumn id="6" name="Untested" dataDxfId="20"/>
+    <tableColumn id="3" name="Passed" dataDxfId="27"/>
+    <tableColumn id="4" name="Failed" dataDxfId="26"/>
+    <tableColumn id="5" name="N/A" dataDxfId="25"/>
+    <tableColumn id="6" name="Untested" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3343,7 +3168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D25" workbookViewId="0">
       <selection activeCell="G10" sqref="G10:I26"/>
     </sheetView>
   </sheetViews>
@@ -3458,410 +3283,410 @@
     </row>
     <row r="10" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="12">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="12">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="12">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="132" x14ac:dyDescent="0.3">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="12">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I17" s="12">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="12">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="198" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I24" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I25" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="12">
-        <v>45370</v>
+        <v>45369</v>
       </c>
     </row>
   </sheetData>
@@ -3894,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4009,19 +3834,19 @@
     </row>
     <row r="10" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -4033,19 +3858,19 @@
     </row>
     <row r="11" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -4057,19 +3882,19 @@
     </row>
     <row r="12" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -4081,19 +3906,19 @@
     </row>
     <row r="13" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
@@ -4105,19 +3930,19 @@
     </row>
     <row r="14" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11" t="s">
@@ -4129,19 +3954,19 @@
     </row>
     <row r="15" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
@@ -4153,19 +3978,19 @@
     </row>
     <row r="16" spans="2:9" ht="250.8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
@@ -4177,19 +4002,19 @@
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
@@ -4229,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4242,16 +4067,16 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -4262,7 +4087,7 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="D4" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4287,7 +4112,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="D5" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4312,7 +4137,7 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="14" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4337,32 +4162,32 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D7" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
         <v>17</v>
       </c>
       <c r="E7" s="15">
-        <f>COLLECTION!F4</f>
+        <f>PUBLISHER!F4</f>
         <v>0</v>
       </c>
       <c r="F7" s="15">
-        <f>COLLECTION!G4</f>
+        <f>PUBLISHER!G4</f>
         <v>0</v>
       </c>
       <c r="G7" s="15">
-        <f>COLLECTION!H4</f>
+        <f>PUBLISHER!H4</f>
         <v>0</v>
       </c>
       <c r="H7" s="15">
-        <f>COLLECTION!I4</f>
+        <f>PUBLISHER!I4</f>
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="D8" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4387,7 +4212,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="18" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -4397,7 +4222,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(D4:D8)</f>
@@ -4422,7 +4247,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>

--- a/Auto_TC.xlsx
+++ b/Auto_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6984" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="244">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -716,20 +716,6 @@
   </si>
   <si>
     <t>Thay đổi tên đăng nhập thành 1 kí tự, mật khẩu thành 1 kí tự, gmail hợp lệ, có thay đổi ảnh đại diện và ảnh nền</t>
-  </si>
-  <si>
-    <t>B1: Nhấn vào biểu tượng 3 gạch để mở thanh bên
-B2: Chọn mục cài đặt 
-B3: Chọn mục tài khoản
-B4: Chọn trường tên đăng nhập, xóa thông tin cũ và nhập: 'hi'
-B5: Chọn trường mật khẩu, xóa thông tin cũ và nhập: '12'
-B6: Chọn trường gmail, xóa thông tin cũ và nhập: 'hien@gmail.com'
-B7: Nhấn nút "Chọn ảnh đại diện" 
-B8: Chọn ảnh đầu tiên trong thư viện
-B9: Nhấn nút "Chọn ảnh nền"
-B10: Chọn ảnh đầu tiên trong thư viện
-B11: Chọn nút "Lưu"
-B12: Nhấn nút "OK" trong thông báo</t>
   </si>
   <si>
     <t>3. Hiển thị thông tin tài khoản với trường tên đăng nhập, mật khẩu và gmail được tự động điền và hình nền và hình đại diện được hiển thị
@@ -884,14 +870,6 @@
     <t>Thêm thông tin nhà xuất bản với số điện thoại không hợp lệ</t>
   </si>
   <si>
-    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
-B2: Chọn nút "+" để mở giao diện thông tin nhà xuất bản
-B3: Chọn trường số điện thoại và nhập: '^^&amp;&amp;**789'
-B4: Chọn nút "+" để thêm thông tin
-B5: Chọn nút "Ok" trên thông báo
-</t>
-  </si>
-  <si>
     <t>2. Hiển thị giao diện thông tin nhà xuất bản với mã nhà xuất bản đã được tạo sẵn
 4. Hiển thị icon cảnh báo, với tiêu đề thông báo "Cảnh báo", nội dung: "Số điện thoại không hợp lệ"
 5. Tắt thông báo</t>
@@ -911,11 +889,6 @@
 B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiền
 B3: Chọn "+" để thêm thông tin nhà xuất bản
 B4: Chọn nút "OK" trong thông báo</t>
-  </si>
-  <si>
-    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
-3. Hiển thị icon thất bại, tiêu đề: "Thông báo" và nội dung: "Thêm thông tin nhà xuất bản không thành công"
-4. Tắt thông báo</t>
   </si>
   <si>
     <t>PUBLISHER_F_08</t>
@@ -941,19 +914,6 @@
     <t>PUBLISHER_F_09</t>
   </si>
   <si>
-    <t>Sửa thông tin nhà xuất bản với tên nhà xuất bản có 1 kí tự, đổi tình trạng và số điện thoại hợp lệ, ghi chú có 1 kí tự</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
-B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
-B3: Chọn trường tên nhà xuất bản, xóa thông tin cũ và nhập: 'h'
-B4: Chọn dropbox và chọn "Tạm dừng"
-B5: Chọn trường số điện thoại, xóa thông tin cũ và nhập: '0123456789'
-B6: Chọn trường ghi chú, xóa thông tin cũ và nhập: "h"
-B7: Chọn sửa để sửa thông tin nhà xuất bản
-B8: Chọn nút "OK" trong thông báo</t>
-  </si>
-  <si>
     <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
 7. Hiển thị icon thành công, với tiêu đề thông báo "Thông báo", nội dung: "Sửa thông tin nhà xuất bản thành công"
 8. Tắt thông báo và trở về danh sách thông tin nhà xuất bản</t>
@@ -963,15 +923,6 @@
   </si>
   <si>
     <t>Sửa thông tin nhà xuất bản với tên nhà xuất bản bị bỏ trống</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
-B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
-B3: Chọn trường tên nhà xuất bản, xóa thông tin cũ
-B4: Chọn dropbox và chọn "Tạm dừng"
-B5: Chọn trường số điện thoại, xóa thông tin cũ và nhập: '0123456789'
-B6: Chọn sửa để sửa thông tin nhà xuất bản
-B7: Chọn nút "OK" trong thông báo</t>
   </si>
   <si>
     <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
@@ -1011,21 +962,10 @@
 B4: Nhấn "OK" trên thông báo</t>
   </si>
   <si>
-    <t>2. Hiển thị giao diện thông tin nhà xuất bản với mã nhà xuất bản đã được tạo sẵn
-3. Hiển thị icon thất bại, với tiêu đề thông báo "Thông báo", nội dung: "Sửa thông tin nhà xuất bản không thành công"
-4. Tắt thông báo</t>
-  </si>
-  <si>
     <t>PUBLISHER_F_13</t>
   </si>
   <si>
     <t>Xóa thông tin nhà xuất bản thành công</t>
-  </si>
-  <si>
-    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
-B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
-B3: Chọn nút xóa
-B4: Chọn nút "OK" trong thông báo</t>
   </si>
   <si>
     <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
@@ -1063,11 +1003,6 @@
 B5: Chọn nút "OK" trong thông báo</t>
   </si>
   <si>
-    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
-3. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Bạn có chắc chắn muốn xóa thông tin này không"
-4. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Xóa thông tin nhà xuất bản không thành công"</t>
-  </si>
-  <si>
     <t>PUBLISHER_F_16</t>
   </si>
   <si>
@@ -1110,14 +1045,88 @@
     <t>Tìm kiếm thông tin nhà xuất bản với tên nhà xuất bản không tồn tại</t>
   </si>
   <si>
+    <t>3. Không hiển thị thông tin nhà xuất bản nào trong danh sách</t>
+  </si>
+  <si>
+    <t>Quản lý thông tin nhà xuất bản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút "+" để mở giao diện thông tin nhà xuất bản
+B3: Nhập tên nhà xuất bản" 'hi'
+B4: Chọn trường số điện thoại và nhập: '^^&amp;&amp;**789'
+B5: Chọn nút "+" để thêm thông tin
+B6: Chọn nút "Ok" trên thông báo
+</t>
+  </si>
+  <si>
+    <t>Sửa thông tin nhà xuất bản với tên nhà xuất bản có 1 kí tự, đổi tình trạng, địa chỉ có 1 kí tự và số điện thoại hợp lệ, ghi chú có 1 kí tự</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
+B3: Chọn trường tên nhà xuất bản, xóa thông tin cũ và nhập: 'h'
+B4: Chọn trường địa chỉ, xóa thông tin cũ và nhập:'h'
+B5: Chọn dropbox và chọn "Không hoạt động"
+B6: Chọn trường số điện thoại, xóa thông tin cũ và nhập: '0123456789'
+B7: Chọn trường ghi chú, xóa thông tin cũ và nhập: "h"
+B8: Chọn sửa để sửa thông tin nhà xuất bản
+B9: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
+B3: Chọn trường tên nhà xuất bản và xóa tên nhà xuất bản
+B4: Chọn dropbox và chọn "Tạm dừng"
+B5: Chọn trường số điện thoại, xóa thông tin cũ và nhập: '0123456789'
+B6: Chọn sửa để sửa thông tin nhà xuất bản
+B7: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị giao diện thông tin nhà xuất bản với mã nhà xuất bản đã được tạo sẵn
+3. Hiển thị icon thất bại, với tiêu đề thông báo "Thông báo", nội dung: "Sửa nhà xuất bản không thành công"
+4. Tắt thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+3. Hiển thị icon thất bại, tiêu đề: "Thông báo" và nội dung: "Thêm nhà xuất bản không thành công"
+4. Tắt thông báo</t>
+  </si>
+  <si>
+    <t>B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Trong danh sách thông tin nhà xuất bản, chọn vào thông tin đầu tiên
+B3: Nhập tên nhà xuất bản: 'hi'
+B4: Chọn nút xóa
+B5: Chọn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông tin nhà xuất bản được chọn trên các trường tương ứng
+3. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Bạn có chắc chắn muốn xóa thông tin này không"
+4. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Xóa nhà xuất bản không thành công"</t>
+  </si>
+  <si>
     <t>Đã đăng nhập thành công
-Có ít nhất một thông tin nhà xuất bản đã được lưu trong danh sách và không có nhà xuất bản nào có tên "kd"</t>
-  </si>
-  <si>
-    <t>3. Không hiển thị thông tin nhà xuất bản nào trong danh sách</t>
-  </si>
-  <si>
-    <t>Quản lý thông tin nhà xuất bản</t>
+Có ít nhất một thông tin nhà xuất bản đã được lưu trong danh sách và không có nhà xuất bản nào có tên "xoai"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Tại giao diện trang chủ, chọn nút nhà xuất bản hoặc chọn mục nhà xuất bản trong menu
+B2: Chọn nút tìm kiếm
+B3: Chọn ô tìm kiếm và nhập: 'xoai'
+</t>
+  </si>
+  <si>
+    <t>B1: Nhấn vào biểu tượng 3 gạch để mở thanh bên
+B2: Chọn mục cài đặt 
+B3: Chọn mục tài khoản
+B4: Chọn trường tên đăng nhập, xóa thông tin cũ và nhập: 'hi'
+B5: Chọn trường mật khẩu, xóa thông tin cũ và nhập: '12'
+B6: Chọn trường gmail, xóa thông tin cũ và nhập: 'hien@gmail.com'
+B7: Nhấn nút "Chọn ảnh đại diện" 
+B8: Chọn ảnh bất kì trong thư viện
+B9: Nhấn nút "Chọn ảnh nền"
+B10: Chọn ảnh bất kì trong thư viện
+B11: Chọn nút "Lưu"
+B12: Nhấn nút "OK" trong thông báo</t>
   </si>
 </sst>
 </file>
@@ -1343,46 +1352,25 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="26">
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1584,25 +1572,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1681,14 +1650,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="C3:H11" totalsRowShown="0">
   <autoFilter ref="C3:H11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Chức năng" dataDxfId="29"/>
-    <tableColumn id="2" name="Tổng số testcase" dataDxfId="28">
+    <tableColumn id="1" name="Chức năng" dataDxfId="5"/>
+    <tableColumn id="2" name="Tổng số testcase" dataDxfId="4">
       <calculatedColumnFormula>SUM(COUNTA('[1]Đăng nhập'!C12:C24), COUNTA('[1]Đăng kí'!C12:C26),COUNTA('[1]Khôi phục mật khẩu'!C12:C29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Passed" dataDxfId="27"/>
-    <tableColumn id="4" name="Failed" dataDxfId="26"/>
-    <tableColumn id="5" name="N/A" dataDxfId="25"/>
-    <tableColumn id="6" name="Untested" dataDxfId="24"/>
+    <tableColumn id="3" name="Passed" dataDxfId="3"/>
+    <tableColumn id="4" name="Failed" dataDxfId="2"/>
+    <tableColumn id="5" name="N/A" dataDxfId="1"/>
+    <tableColumn id="6" name="Untested" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2290,18 +2259,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2715,18 +2684,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H21">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H21">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3140,18 +3109,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H21">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H21">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3168,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I26"/>
+    <sheetView topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3283,19 +3252,19 @@
     </row>
     <row r="10" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -3307,19 +3276,19 @@
     </row>
     <row r="11" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -3331,19 +3300,19 @@
     </row>
     <row r="12" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -3355,19 +3324,19 @@
     </row>
     <row r="13" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
@@ -3379,19 +3348,19 @@
     </row>
     <row r="14" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11" t="s">
@@ -3403,19 +3372,19 @@
     </row>
     <row r="15" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="F15" s="10" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
@@ -3427,19 +3396,19 @@
     </row>
     <row r="16" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
@@ -3451,19 +3420,19 @@
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
@@ -3475,19 +3444,19 @@
     </row>
     <row r="18" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11" t="s">
@@ -3499,19 +3468,19 @@
     </row>
     <row r="19" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
@@ -3523,19 +3492,19 @@
     </row>
     <row r="20" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11" t="s">
@@ -3547,19 +3516,19 @@
     </row>
     <row r="21" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
@@ -3571,19 +3540,19 @@
     </row>
     <row r="22" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
@@ -3593,21 +3562,21 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="198" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11" t="s">
@@ -3619,19 +3588,19 @@
     </row>
     <row r="24" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11" t="s">
@@ -3643,19 +3612,19 @@
     </row>
     <row r="25" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11" t="s">
@@ -3665,21 +3634,21 @@
         <v>45369</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11" t="s">
@@ -3691,18 +3660,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H26">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H26">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3719,7 +3688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3987,10 +3956,10 @@
         <v>132</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
@@ -4002,19 +3971,19 @@
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
@@ -4026,18 +3995,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4054,7 +4023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -4067,16 +4036,16 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
         <v>160</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>161</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>162</v>
-      </c>
-      <c r="F3" t="s">
-        <v>163</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -4087,7 +4056,7 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4112,7 +4081,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4137,7 +4106,7 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4162,7 +4131,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D7" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4187,7 +4156,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4212,7 +4181,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -4222,7 +4191,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(D4:D8)</f>
@@ -4247,7 +4216,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>

--- a/Auto_TC.xlsx
+++ b/Auto_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6984" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6984" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="245">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -591,10 +591,6 @@
   <si>
     <t>Đã cài đặt ứng dụng thành công
 Chưa có tài khoản đăng kí trong hệ thống</t>
-  </si>
-  <si>
-    <t>7. Hiển thị icon cảnh báo, với tiêu đề thông báo "cảnh báo", nội dung: "Chưa có tài khoản đăng kí trong hệ thống"
-8. Tắt thông báo</t>
   </si>
   <si>
     <t>SETUP_ACCOUNT_F_00</t>
@@ -1127,6 +1123,19 @@
 B10: Chọn ảnh bất kì trong thư viện
 B11: Chọn nút "Lưu"
 B12: Nhấn nút "OK" trong thông báo</t>
+  </si>
+  <si>
+    <t>B1: Mở ứng dụng
+B2: Chọn "Quên mật khẩu"
+B3: Nhấn chọn trường tên đăng nhập và nhập: 'hi'
+B4: Nhấn chọn trường mật khẩu và nhập: '12'
+B5: Nhấn chọn trường xác nhận mật khẩu và nhập: '12'
+B6: Chọn gửi mã xác nhận
+B7: Chọn nút "OK" trên thông báo</t>
+  </si>
+  <si>
+    <t>6. Hiển thị icon thông báo, với tiêu đề thông báo "Thông báo", nội dung: "Chưa có tài khoản đăng kí trong hệ thống do chưa đăng kí tài khoản"
+7. Tắt thông báo</t>
   </si>
 </sst>
 </file>
@@ -2712,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3083,7 +3092,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>126</v>
       </c>
@@ -3094,10 +3103,10 @@
         <v>128</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
@@ -3252,19 +3261,19 @@
     </row>
     <row r="10" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -3276,19 +3285,19 @@
     </row>
     <row r="11" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -3300,19 +3309,19 @@
     </row>
     <row r="12" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>182</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -3324,19 +3333,19 @@
     </row>
     <row r="13" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
@@ -3348,19 +3357,19 @@
     </row>
     <row r="14" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11" t="s">
@@ -3372,19 +3381,19 @@
     </row>
     <row r="15" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="F15" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
@@ -3396,19 +3405,19 @@
     </row>
     <row r="16" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
@@ -3420,19 +3429,19 @@
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
@@ -3444,19 +3453,19 @@
     </row>
     <row r="18" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>202</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11" t="s">
@@ -3468,19 +3477,19 @@
     </row>
     <row r="19" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
@@ -3492,19 +3501,19 @@
     </row>
     <row r="20" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="F20" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11" t="s">
@@ -3516,19 +3525,19 @@
     </row>
     <row r="21" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
@@ -3540,19 +3549,19 @@
     </row>
     <row r="22" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
@@ -3564,19 +3573,19 @@
     </row>
     <row r="23" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="F23" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11" t="s">
@@ -3588,19 +3597,19 @@
     </row>
     <row r="24" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11" t="s">
@@ -3612,19 +3621,19 @@
     </row>
     <row r="25" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11" t="s">
@@ -3636,19 +3645,19 @@
     </row>
     <row r="26" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11" t="s">
@@ -3688,7 +3697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3803,19 +3812,19 @@
     </row>
     <row r="10" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
@@ -3827,19 +3836,19 @@
     </row>
     <row r="11" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11" t="s">
@@ -3851,19 +3860,19 @@
     </row>
     <row r="12" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
@@ -3875,19 +3884,19 @@
     </row>
     <row r="13" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
@@ -3899,19 +3908,19 @@
     </row>
     <row r="14" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11" t="s">
@@ -3923,19 +3932,19 @@
     </row>
     <row r="15" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
@@ -3947,19 +3956,19 @@
     </row>
     <row r="16" spans="2:9" ht="250.8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
@@ -3971,19 +3980,19 @@
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
@@ -4036,16 +4045,16 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
         <v>159</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>160</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>161</v>
-      </c>
-      <c r="F3" t="s">
-        <v>162</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -4056,7 +4065,7 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4081,7 +4090,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4106,7 +4115,7 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4131,7 +4140,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4156,7 +4165,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="15">
         <f>SUM(Table2[[#This Row],[Passed]:[Untested]])</f>
@@ -4181,7 +4190,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -4191,7 +4200,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(D4:D8)</f>
@@ -4216,7 +4225,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>

--- a/Auto_TC.xlsx
+++ b/Auto_TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6984" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="6984" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="245">
   <si>
     <t>TEST CASES</t>
   </si>
@@ -1361,7 +1361,207 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1659,14 +1859,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="C3:H11" totalsRowShown="0">
   <autoFilter ref="C3:H11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Chức năng" dataDxfId="5"/>
-    <tableColumn id="2" name="Tổng số testcase" dataDxfId="4">
+    <tableColumn id="1" name="Chức năng" dataDxfId="25"/>
+    <tableColumn id="2" name="Tổng số testcase" dataDxfId="24">
       <calculatedColumnFormula>SUM(COUNTA('[1]Đăng nhập'!C12:C24), COUNTA('[1]Đăng kí'!C12:C26),COUNTA('[1]Khôi phục mật khẩu'!C12:C29))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Passed" dataDxfId="3"/>
-    <tableColumn id="4" name="Failed" dataDxfId="2"/>
-    <tableColumn id="5" name="N/A" dataDxfId="1"/>
-    <tableColumn id="6" name="Untested" dataDxfId="0"/>
+    <tableColumn id="3" name="Passed" dataDxfId="23"/>
+    <tableColumn id="4" name="Failed" dataDxfId="22"/>
+    <tableColumn id="5" name="N/A" dataDxfId="21"/>
+    <tableColumn id="6" name="Untested" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1961,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,7 +2208,7 @@
       </c>
       <c r="F4" s="6">
         <f>COUNTIF(H10:H63,"Passed")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6">
         <f>COUNTIF(H10:H63,"Failed")</f>
@@ -2020,7 +2220,7 @@
       </c>
       <c r="I4" s="6">
         <f>COUNTIF(H10:H63,"Untested")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -2033,7 +2233,7 @@
       </c>
       <c r="F5" s="7">
         <f>F4/C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>G4/C5</f>
@@ -2045,7 +2245,7 @@
       </c>
       <c r="I5" s="7">
         <f>I4/C5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -2090,12 +2290,14 @@
       <c r="F10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="H10" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I10" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2114,12 +2316,14 @@
       <c r="F11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I11" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2138,12 +2342,14 @@
       <c r="F12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I12" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2162,12 +2368,14 @@
       <c r="F13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="H13" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I13" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2186,12 +2394,14 @@
       <c r="F14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I14" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2210,12 +2420,14 @@
       <c r="F15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I15" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2234,12 +2446,14 @@
       <c r="F16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I16" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
@@ -2258,28 +2472,30 @@
       <c r="F17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H17" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I17" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2296,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,7 +2559,7 @@
       </c>
       <c r="F4" s="6">
         <f>COUNTIF(H10:H66,"Passed")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6">
         <f>COUNTIF(H10:H66,"Failed")</f>
@@ -2355,7 +2571,7 @@
       </c>
       <c r="I4" s="6">
         <f>COUNTIF(H10:H66,"Untested")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -2368,7 +2584,7 @@
       </c>
       <c r="F5" s="7">
         <f>F4/C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>G4/C5</f>
@@ -2380,7 +2596,7 @@
       </c>
       <c r="I5" s="7">
         <f>I4/C5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -2425,12 +2641,14 @@
       <c r="F10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="H10" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I10" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -2449,12 +2667,14 @@
       <c r="F11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="H11" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I11" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -2473,12 +2693,14 @@
       <c r="F12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I12" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -2497,12 +2719,14 @@
       <c r="F13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="H13" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I13" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2521,12 +2745,14 @@
       <c r="F14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H14" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I14" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2545,12 +2771,14 @@
       <c r="F15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I15" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2569,11 +2797,15 @@
       <c r="F16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="I16" s="12">
+        <v>45790</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
@@ -2591,11 +2823,15 @@
       <c r="F17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="I17" s="12">
+        <v>45790</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
@@ -2613,11 +2849,15 @@
       <c r="F18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="H18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="I18" s="12">
+        <v>45790</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
@@ -2635,12 +2875,14 @@
       <c r="F19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="H19" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I19" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -2659,12 +2901,14 @@
       <c r="F20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="H20" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I20" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -2683,28 +2927,30 @@
       <c r="F21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H21" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I21" s="12">
-        <v>45368</v>
+        <v>45790</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H21">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H21">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2721,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2768,7 +3014,7 @@
       </c>
       <c r="F4" s="6">
         <f>COUNTIF(H10:H66,"Passed")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6">
         <f>COUNTIF(H10:H66,"Failed")</f>
@@ -2780,7 +3026,7 @@
       </c>
       <c r="I4" s="6">
         <f>COUNTIF(H10:H66,"Untested")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -2793,7 +3039,7 @@
       </c>
       <c r="F5" s="7">
         <f>F4/C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>G4/C5</f>
@@ -2805,7 +3051,7 @@
       </c>
       <c r="I5" s="7">
         <f>I4/C5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -2850,12 +3096,14 @@
       <c r="F10" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="H10" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I10" s="12">
-        <v>45368</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -2874,12 +3122,14 @@
       <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="H11" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I11" s="12">
-        <v>45368</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -2898,12 +3148,14 @@
       <c r="F12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I12" s="12">
-        <v>45368</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -2922,12 +3174,14 @@
       <c r="F13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="H13" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I13" s="12">
-        <v>45368</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2946,12 +3200,14 @@
       <c r="F14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="H14" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I14" s="12">
-        <v>45368</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2970,12 +3226,14 @@
       <c r="F15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I15" s="12">
-        <v>45368</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -2994,11 +3252,15 @@
       <c r="F16" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="I16" s="12">
+        <v>45789</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
@@ -3016,11 +3278,15 @@
       <c r="F17" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="H17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="I17" s="12">
+        <v>45789</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="79.2" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
@@ -3038,11 +3304,15 @@
       <c r="F18" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="H18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="I18" s="12">
+        <v>45789</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
@@ -3060,12 +3330,14 @@
       <c r="F19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="H19" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I19" s="12">
-        <v>45368</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="105.6" x14ac:dyDescent="0.3">
@@ -3084,12 +3356,14 @@
       <c r="F20" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="H20" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I20" s="12">
-        <v>45368</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -3108,28 +3382,30 @@
       <c r="F21" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="H21" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I21" s="12">
-        <v>45368</v>
+        <v>45789</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H21">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H21">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3146,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3193,7 +3469,7 @@
       </c>
       <c r="F4" s="6">
         <f>COUNTIF(H10:H58,"Passed")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6">
         <f>COUNTIF(H10:H58,"Failed")</f>
@@ -3205,7 +3481,7 @@
       </c>
       <c r="I4" s="6">
         <f>COUNTIF(H10:H58,"Untested")</f>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -3218,7 +3494,7 @@
       </c>
       <c r="F5" s="7">
         <f>F4/C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>G4/C5</f>
@@ -3230,7 +3506,7 @@
       </c>
       <c r="I5" s="7">
         <f>I4/C5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -3275,12 +3551,14 @@
       <c r="F10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="H10" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I10" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="171.6" x14ac:dyDescent="0.3">
@@ -3299,12 +3577,14 @@
       <c r="F11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="H11" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I11" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="196.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3323,12 +3603,14 @@
       <c r="F12" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I12" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="132" x14ac:dyDescent="0.3">
@@ -3347,12 +3629,14 @@
       <c r="F13" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="H13" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I13" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="132" x14ac:dyDescent="0.3">
@@ -3371,12 +3655,14 @@
       <c r="F14" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="H14" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I14" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
@@ -3395,12 +3681,14 @@
       <c r="F15" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I15" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -3419,12 +3707,14 @@
       <c r="F16" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I16" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -3443,12 +3733,14 @@
       <c r="F17" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="H17" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I17" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
@@ -3467,12 +3759,14 @@
       <c r="F18" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="H18" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I18" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
@@ -3491,12 +3785,14 @@
       <c r="F19" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="H19" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I19" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="132" x14ac:dyDescent="0.3">
@@ -3515,12 +3811,14 @@
       <c r="F20" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>236</v>
+      </c>
       <c r="H20" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I20" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
@@ -3539,12 +3837,14 @@
       <c r="F21" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="H21" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I21" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="132" x14ac:dyDescent="0.3">
@@ -3563,12 +3863,14 @@
       <c r="F22" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="H22" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I22" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="184.8" x14ac:dyDescent="0.3">
@@ -3587,12 +3889,14 @@
       <c r="F23" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="H23" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I23" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -3611,12 +3915,14 @@
       <c r="F24" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="H24" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I24" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="92.4" x14ac:dyDescent="0.3">
@@ -3635,12 +3941,14 @@
       <c r="F25" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="H25" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I25" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="118.8" x14ac:dyDescent="0.3">
@@ -3659,28 +3967,30 @@
       <c r="F26" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>230</v>
+      </c>
       <c r="H26" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I26" s="12">
-        <v>45369</v>
+        <v>45790</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H26">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H26">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3697,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3744,7 +4054,7 @@
       </c>
       <c r="F4" s="6">
         <f>COUNTIF(H10:H63,"Passed")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6">
         <f>COUNTIF(H10:H63,"Failed")</f>
@@ -3756,7 +4066,7 @@
       </c>
       <c r="I4" s="6">
         <f>COUNTIF(H10:H63,"Untested")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -3769,7 +4079,7 @@
       </c>
       <c r="F5" s="7">
         <f>F4/C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>G4/C5</f>
@@ -3781,7 +4091,7 @@
       </c>
       <c r="I5" s="7">
         <f>I4/C5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -3826,12 +4136,14 @@
       <c r="F10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="H10" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I10" s="12">
-        <v>45368</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -3850,12 +4162,14 @@
       <c r="F11" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="H11" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I11" s="12">
-        <v>45368</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
@@ -3874,12 +4188,14 @@
       <c r="F12" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="H12" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I12" s="12">
-        <v>45368</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
@@ -3898,12 +4214,14 @@
       <c r="F13" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="H13" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I13" s="12">
-        <v>45368</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="158.4" x14ac:dyDescent="0.3">
@@ -3922,12 +4240,14 @@
       <c r="F14" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="H14" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I14" s="12">
-        <v>45368</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -3946,12 +4266,14 @@
       <c r="F15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="H15" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I15" s="12">
-        <v>45368</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="250.8" x14ac:dyDescent="0.3">
@@ -3970,12 +4292,14 @@
       <c r="F16" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I16" s="12">
-        <v>45368</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -3994,28 +4318,30 @@
       <c r="F17" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="H17" s="11" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I17" s="12">
-        <v>45368</v>
+        <v>45788</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4032,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4073,7 +4399,7 @@
       </c>
       <c r="E4" s="15">
         <f>LOGIN!F4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4" s="15">
         <f>LOGIN!G4</f>
@@ -4085,7 +4411,7 @@
       </c>
       <c r="H4" s="16">
         <f>LOGIN!I4</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
@@ -4098,7 +4424,7 @@
       </c>
       <c r="E5" s="15">
         <f>REGISTER!F4</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F5" s="15">
         <f>REGISTER!G4</f>
@@ -4110,7 +4436,7 @@
       </c>
       <c r="H5" s="15">
         <f>REGISTER!I4</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -4123,7 +4449,7 @@
       </c>
       <c r="E6" s="15">
         <f>FORGOT_PASSWORD!F4</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6" s="15">
         <f>FORGOT_PASSWORD!G4</f>
@@ -4135,7 +4461,7 @@
       </c>
       <c r="H6" s="15">
         <f>FORGOT_PASSWORD!I4</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -4148,7 +4474,7 @@
       </c>
       <c r="E7" s="15">
         <f>PUBLISHER!F4</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F7" s="15">
         <f>PUBLISHER!G4</f>
@@ -4160,7 +4486,7 @@
       </c>
       <c r="H7" s="15">
         <f>PUBLISHER!I4</f>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -4173,7 +4499,7 @@
       </c>
       <c r="E8" s="17">
         <f>ACCOUNT!F4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F8" s="17">
         <f>ACCOUNT!G4</f>
@@ -4185,7 +4511,7 @@
       </c>
       <c r="H8" s="17">
         <f>ACCOUNT!I4</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -4208,7 +4534,7 @@
       </c>
       <c r="E10" s="16">
         <f>SUM(E4:E8)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F10" s="16">
         <f t="shared" ref="F10:H10" si="0">SUM(F4:F8)</f>
@@ -4220,7 +4546,7 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -4232,7 +4558,7 @@
       </c>
       <c r="E11" s="20">
         <f>E10/D10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="20">
         <f>F10/D10</f>
@@ -4244,7 +4570,7 @@
       </c>
       <c r="H11" s="20">
         <f>H10/D10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
